--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -2,25 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BFA483-3946-45CA-84A2-599A860695BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darsh\PycharmProjects\CartpythonProject\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF23CC-6C4F-4317-85A6-0E62A076A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEDC7FCE-6AEA-4137-9FDC-CD712417C4CF}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -28,25 +42,28 @@
     <t>password</t>
   </si>
   <si>
+    <t>res</t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>res</t>
+    <t>Darshan23!</t>
+  </si>
+  <si>
+    <t>Darshan23</t>
   </si>
   <si>
     <t>darshansom23@gmail.com</t>
   </si>
   <si>
-    <t>Darshan23!</t>
-  </si>
-  <si>
-    <t>Darshan</t>
-  </si>
-  <si>
     <t>darshansom@gmail.com</t>
+  </si>
+  <si>
+    <t>darshan23@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -173,7 +190,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -185,7 +202,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -452,18 +469,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE2FC20-B3DF-4E98-A4A2-179E6CD48EEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
@@ -474,61 +491,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7ED63F57-644F-4E78-9587-08CB51DEF5FB}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EE00A845-755F-4660-B9FE-F8DD19A617DC}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{0592D59B-AF09-4BC2-829B-07279E6023F8}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{46D7AB5C-38CF-4D23-9E35-E8377A783B72}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{EB701B42-A320-4932-9568-F231C8F446AB}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{2C470B3A-2A6E-4E3F-904B-CF31F1A9D026}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{93910C2A-F79E-4AFA-A4B6-D7111D627E47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>